--- a/configs/monster.xlsx
+++ b/configs/monster.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DreamCC\configs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA555C7D-D938-4948-8092-D94B4DFC8FE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3CD1D84-8BC2-41C9-A189-540E4BE5CEE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-30828" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-27924" yWindow="1764" windowWidth="23040" windowHeight="13572" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Monster" sheetId="1" r:id="rId1"/>
@@ -577,10 +577,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O4"/>
+  <dimension ref="A1:O5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -736,35 +736,35 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
         <v>1</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B5" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G5" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="I4" s="1">
+      <c r="I5" s="1">
         <v>50</v>
       </c>
-      <c r="J4" s="1">
+      <c r="J5" s="1">
         <v>60</v>
       </c>
-      <c r="M4" s="1">
+      <c r="M5" s="1">
         <v>1</v>
       </c>
-      <c r="O4" s="1">
+      <c r="O5" s="1">
         <v>10</v>
       </c>
     </row>
